--- a/predictions/Прогнозы_GP_Combo_1.xlsx
+++ b/predictions/Прогнозы_GP_Combo_1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22627718.86030078</v>
+        <v>22314885.10909653</v>
       </c>
       <c r="C2" t="n">
-        <v>22977890.2301335</v>
+        <v>22646929.20474052</v>
       </c>
       <c r="D2" t="n">
-        <v>23328061.59808421</v>
+        <v>22978973.30038357</v>
       </c>
       <c r="E2" t="n">
-        <v>23678232.96447623</v>
+        <v>23311017.39602566</v>
       </c>
       <c r="F2" t="n">
-        <v>24028404.33007044</v>
+        <v>23643061.4916687</v>
       </c>
       <c r="G2" t="n">
-        <v>24378575.69585279</v>
+        <v>23975105.58731079</v>
       </c>
       <c r="H2" t="n">
-        <v>24728747.06275553</v>
+        <v>24307149.68295479</v>
       </c>
       <c r="I2" t="n">
-        <v>25078918.4313966</v>
+        <v>24639193.77859783</v>
       </c>
       <c r="J2" t="n">
-        <v>25429089.80190489</v>
+        <v>24971237.87423897</v>
       </c>
       <c r="K2" t="n">
-        <v>25779261.17388487</v>
+        <v>25303281.96988392</v>
       </c>
       <c r="L2" t="n">
-        <v>26129432.54652691</v>
+        <v>25635326.06552601</v>
       </c>
       <c r="M2" t="n">
-        <v>26479603.91883537</v>
+        <v>25967370.16116714</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12897731.36891472</v>
+        <v>9096900.85245806</v>
       </c>
       <c r="C3" t="n">
-        <v>12941720.77484822</v>
+        <v>8993030.271521986</v>
       </c>
       <c r="D3" t="n">
-        <v>12999154.08661425</v>
+        <v>9043342.624072701</v>
       </c>
       <c r="E3" t="n">
-        <v>13068643.13591111</v>
+        <v>9170845.832299411</v>
       </c>
       <c r="F3" t="n">
-        <v>13149726.8875525</v>
+        <v>9336993.71675539</v>
       </c>
       <c r="G3" t="n">
-        <v>13241181.67795777</v>
+        <v>9522495.150502443</v>
       </c>
       <c r="H3" t="n">
-        <v>13342632.94581568</v>
+        <v>9717676.900184393</v>
       </c>
       <c r="I3" t="n">
-        <v>13453009.79413354</v>
+        <v>9917713.205222875</v>
       </c>
       <c r="J3" t="n">
-        <v>13572000.90447366</v>
+        <v>10120177.97865051</v>
       </c>
       <c r="K3" t="n">
-        <v>13698678.31100583</v>
+        <v>10323852.6185599</v>
       </c>
       <c r="L3" t="n">
-        <v>13832773.74607182</v>
+        <v>10528142.79604641</v>
       </c>
       <c r="M3" t="n">
-        <v>13973493.79437625</v>
+        <v>10732733.13246369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20564301.53163564</v>
+        <v>15310974.76504898</v>
       </c>
       <c r="C4" t="n">
-        <v>19416099.65693128</v>
+        <v>15629953.40600204</v>
       </c>
       <c r="D4" t="n">
-        <v>18422400.14271581</v>
+        <v>15948932.04693604</v>
       </c>
       <c r="E4" t="n">
-        <v>17585292.28904372</v>
+        <v>16267910.68786621</v>
       </c>
       <c r="F4" t="n">
-        <v>16930982.94504631</v>
+        <v>16586889.32881927</v>
       </c>
       <c r="G4" t="n">
-        <v>16472206.68325073</v>
+        <v>16905867.96974945</v>
       </c>
       <c r="H4" t="n">
-        <v>16193500.02368939</v>
+        <v>17224846.61068726</v>
       </c>
       <c r="I4" t="n">
-        <v>16063004.52647644</v>
+        <v>17543825.25162506</v>
       </c>
       <c r="J4" t="n">
-        <v>16037724.96303821</v>
+        <v>17862803.89256287</v>
       </c>
       <c r="K4" t="n">
-        <v>16099811.56133741</v>
+        <v>18181782.5335083</v>
       </c>
       <c r="L4" t="n">
-        <v>16194237.89658457</v>
+        <v>18500761.17443848</v>
       </c>
       <c r="M4" t="n">
-        <v>16289399.30826867</v>
+        <v>18819739.81536865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4405660.624418497</v>
+        <v>25977693.97501469</v>
       </c>
       <c r="C5" t="n">
-        <v>4497445.220760822</v>
+        <v>26518895.93282771</v>
       </c>
       <c r="D5" t="n">
-        <v>4589229.817102432</v>
+        <v>27060097.89064002</v>
       </c>
       <c r="E5" t="n">
-        <v>4681014.413444996</v>
+        <v>27601299.84845328</v>
       </c>
       <c r="F5" t="n">
-        <v>4772799.009786844</v>
+        <v>28142501.80626607</v>
       </c>
       <c r="G5" t="n">
-        <v>4864583.606128931</v>
+        <v>28683703.76407814</v>
       </c>
       <c r="H5" t="n">
-        <v>4956368.202471018</v>
+        <v>29224905.72189093</v>
       </c>
       <c r="I5" t="n">
-        <v>5048152.798813105</v>
+        <v>29766107.67970347</v>
       </c>
       <c r="J5" t="n">
-        <v>5139937.395154715</v>
+        <v>30307309.63751674</v>
       </c>
       <c r="K5" t="n">
-        <v>5231721.99149704</v>
+        <v>30848511.59532952</v>
       </c>
       <c r="L5" t="n">
-        <v>5323506.587839127</v>
+        <v>31389713.55314183</v>
       </c>
       <c r="M5" t="n">
-        <v>5415291.184181452</v>
+        <v>31930915.51095462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11280548.04932028</v>
+        <v>5026788.722023606</v>
       </c>
       <c r="C6" t="n">
-        <v>11582265.63965319</v>
+        <v>5131513.487065554</v>
       </c>
       <c r="D6" t="n">
-        <v>11789000.16960524</v>
+        <v>5236238.252108097</v>
       </c>
       <c r="E6" t="n">
-        <v>12047887.35213485</v>
+        <v>5340963.017150164</v>
       </c>
       <c r="F6" t="n">
-        <v>12263339.89923544</v>
+        <v>5445687.782192111</v>
       </c>
       <c r="G6" t="n">
-        <v>12456010.13495418</v>
+        <v>5550412.547234416</v>
       </c>
       <c r="H6" t="n">
-        <v>12796304.8586769</v>
+        <v>5655137.312276602</v>
       </c>
       <c r="I6" t="n">
-        <v>12905709.36513284</v>
+        <v>5759862.07731843</v>
       </c>
       <c r="J6" t="n">
-        <v>13252018.01315318</v>
+        <v>5864586.842360735</v>
       </c>
       <c r="K6" t="n">
-        <v>13405140.21160987</v>
+        <v>5969311.607402802</v>
       </c>
       <c r="L6" t="n">
-        <v>13658099.73719774</v>
+        <v>6074036.372445107</v>
       </c>
       <c r="M6" t="n">
-        <v>13913205.64116013</v>
+        <v>6178761.137487292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3032921.337084189</v>
+        <v>7784319.384982586</v>
       </c>
       <c r="C7" t="n">
-        <v>3079711.260542959</v>
+        <v>7946492.705503225</v>
       </c>
       <c r="D7" t="n">
-        <v>3126501.184001639</v>
+        <v>8108666.026023388</v>
       </c>
       <c r="E7" t="n">
-        <v>3173291.107460335</v>
+        <v>8270839.346543789</v>
       </c>
       <c r="F7" t="n">
-        <v>3220081.030919001</v>
+        <v>8433012.667064667</v>
       </c>
       <c r="G7" t="n">
-        <v>3266870.95437777</v>
+        <v>8595185.987585068</v>
       </c>
       <c r="H7" t="n">
-        <v>3313660.877836406</v>
+        <v>8757359.308105469</v>
       </c>
       <c r="I7" t="n">
-        <v>3360450.801295176</v>
+        <v>8919532.62862587</v>
       </c>
       <c r="J7" t="n">
-        <v>3407240.724753857</v>
+        <v>9081705.949146271</v>
       </c>
       <c r="K7" t="n">
-        <v>3454030.648212552</v>
+        <v>9243879.269666672</v>
       </c>
       <c r="L7" t="n">
-        <v>3500820.571671411</v>
+        <v>9406052.590187311</v>
       </c>
       <c r="M7" t="n">
-        <v>3547610.495129958</v>
+        <v>9568225.910707712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1825919.67502296</v>
+        <v>19182353.49586444</v>
       </c>
       <c r="C8" t="n">
-        <v>1863959.668252625</v>
+        <v>19299271.88918528</v>
       </c>
       <c r="D8" t="n">
-        <v>1901999.661482245</v>
+        <v>19416190.31360264</v>
       </c>
       <c r="E8" t="n">
-        <v>1940039.65471188</v>
+        <v>19533108.7723164</v>
       </c>
       <c r="F8" t="n">
-        <v>1978079.64794156</v>
+        <v>19650027.25691981</v>
       </c>
       <c r="G8" t="n">
-        <v>2016119.641171217</v>
+        <v>19766945.75024465</v>
       </c>
       <c r="H8" t="n">
-        <v>2054159.634400859</v>
+        <v>19883864.23217116</v>
       </c>
       <c r="I8" t="n">
-        <v>2092199.627630487</v>
+        <v>20000782.68643704</v>
       </c>
       <c r="J8" t="n">
-        <v>2130239.620860144</v>
+        <v>20117701.10614078</v>
       </c>
       <c r="K8" t="n">
-        <v>2168279.614089787</v>
+        <v>20234619.49607746</v>
       </c>
       <c r="L8" t="n">
-        <v>2206319.607319474</v>
+        <v>20351537.87111587</v>
       </c>
       <c r="M8" t="n">
-        <v>2244359.600549087</v>
+        <v>20468456.25116666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7002129.206163019</v>
+        <v>30666386.57480431</v>
       </c>
       <c r="C9" t="n">
-        <v>6449305.055120647</v>
+        <v>31229605.35475743</v>
       </c>
       <c r="D9" t="n">
-        <v>6015878.370292783</v>
+        <v>31792824.13471031</v>
       </c>
       <c r="E9" t="n">
-        <v>5679204.699135065</v>
+        <v>32356042.91466331</v>
       </c>
       <c r="F9" t="n">
-        <v>5420934.246664166</v>
+        <v>32919261.69461644</v>
       </c>
       <c r="G9" t="n">
-        <v>5226197.367642522</v>
+        <v>33482480.47456908</v>
       </c>
       <c r="H9" t="n">
-        <v>5082944.535103381</v>
+        <v>34045699.25452232</v>
       </c>
       <c r="I9" t="n">
-        <v>4981411.487841129</v>
+        <v>34608918.03447521</v>
       </c>
       <c r="J9" t="n">
-        <v>4913685.815921426</v>
+        <v>35172136.81442809</v>
       </c>
       <c r="K9" t="n">
-        <v>4873355.745871186</v>
+        <v>35735355.59438074</v>
       </c>
       <c r="L9" t="n">
-        <v>4855225.535887122</v>
+        <v>36298574.37433386</v>
       </c>
       <c r="M9" t="n">
-        <v>4855084.848064184</v>
+        <v>36861793.15428698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7079921.969455034</v>
+        <v>13216482.87277889</v>
       </c>
       <c r="C10" t="n">
-        <v>7227420.343818694</v>
+        <v>13589449.03861427</v>
       </c>
       <c r="D10" t="n">
-        <v>7374918.718182355</v>
+        <v>13962415.20444489</v>
       </c>
       <c r="E10" t="n">
-        <v>7522417.092545986</v>
+        <v>14335381.37027454</v>
       </c>
       <c r="F10" t="n">
-        <v>7669915.466909617</v>
+        <v>14708347.53611088</v>
       </c>
       <c r="G10" t="n">
-        <v>7817413.841273248</v>
+        <v>15081313.70194054</v>
       </c>
       <c r="H10" t="n">
-        <v>7964912.215636909</v>
+        <v>15454279.86777306</v>
       </c>
       <c r="I10" t="n">
-        <v>8112410.59000054</v>
+        <v>15827246.03360367</v>
       </c>
       <c r="J10" t="n">
-        <v>8259908.96436426</v>
+        <v>16200212.19943619</v>
       </c>
       <c r="K10" t="n">
-        <v>8407407.338727862</v>
+        <v>16573178.3652668</v>
       </c>
       <c r="L10" t="n">
-        <v>8554905.713091522</v>
+        <v>16946144.53109837</v>
       </c>
       <c r="M10" t="n">
-        <v>8702404.087455153</v>
+        <v>17319110.69693184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3328851.774784803</v>
+        <v>17835141.90882969</v>
       </c>
       <c r="C11" t="n">
-        <v>3398202.853426218</v>
+        <v>17490585.97372568</v>
       </c>
       <c r="D11" t="n">
-        <v>3467553.932067513</v>
+        <v>17270160.06197411</v>
       </c>
       <c r="E11" t="n">
-        <v>3536905.010708928</v>
+        <v>17151042.4402743</v>
       </c>
       <c r="F11" t="n">
-        <v>3606256.089350224</v>
+        <v>17113144.02315116</v>
       </c>
       <c r="G11" t="n">
-        <v>3675607.167991638</v>
+        <v>17142785.68394208</v>
       </c>
       <c r="H11" t="n">
-        <v>3744958.246632934</v>
+        <v>17225887.23029083</v>
       </c>
       <c r="I11" t="n">
-        <v>3814309.325274229</v>
+        <v>17353375.45975107</v>
       </c>
       <c r="J11" t="n">
-        <v>3883660.403915644</v>
+        <v>17516810.02625144</v>
       </c>
       <c r="K11" t="n">
-        <v>3953011.482557058</v>
+        <v>17708764.24967831</v>
       </c>
       <c r="L11" t="n">
-        <v>4022362.561197996</v>
+        <v>17925225.66368943</v>
       </c>
       <c r="M11" t="n">
-        <v>4091713.639839649</v>
+        <v>18160062.97389162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312023.5149062797</v>
+        <v>43101315.98802782</v>
       </c>
       <c r="C12" t="n">
-        <v>286472.7998512089</v>
+        <v>43449284.99573342</v>
       </c>
       <c r="D12" t="n">
-        <v>261057.2665636241</v>
+        <v>43715067.18501306</v>
       </c>
       <c r="E12" t="n">
-        <v>235773.0456525311</v>
+        <v>44326652.58892822</v>
       </c>
       <c r="F12" t="n">
-        <v>210616.3784867227</v>
+        <v>44750946.38937522</v>
       </c>
       <c r="G12" t="n">
-        <v>185583.6140249744</v>
+        <v>45027151.32235701</v>
       </c>
       <c r="H12" t="n">
-        <v>160671.2057350203</v>
+        <v>45423620.91850838</v>
       </c>
       <c r="I12" t="n">
-        <v>135875.7086030096</v>
+        <v>45985298.89451358</v>
       </c>
       <c r="J12" t="n">
-        <v>111193.7762275338</v>
+        <v>46413269.40001307</v>
       </c>
       <c r="K12" t="n">
-        <v>86622.15799577534</v>
+        <v>46688514.87549283</v>
       </c>
       <c r="L12" t="n">
-        <v>62157.69634322077</v>
+        <v>47183334.7593296</v>
       </c>
       <c r="M12" t="n">
-        <v>37797.32408867031</v>
+        <v>47706033.00290838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1773101.461086005</v>
+        <v>55881706.33827782</v>
       </c>
       <c r="C13" t="n">
-        <v>1819830.175266296</v>
+        <v>57045908.55365944</v>
       </c>
       <c r="D13" t="n">
-        <v>1866560.036555976</v>
+        <v>58210110.76904202</v>
       </c>
       <c r="E13" t="n">
-        <v>1913294.199744195</v>
+        <v>59374312.98442078</v>
       </c>
       <c r="F13" t="n">
-        <v>1960017.422724843</v>
+        <v>60538515.19980335</v>
       </c>
       <c r="G13" t="n">
-        <v>2006752.262840688</v>
+        <v>61702717.41518307</v>
       </c>
       <c r="H13" t="n">
-        <v>2053477.275396466</v>
+        <v>62866919.63056374</v>
       </c>
       <c r="I13" t="n">
-        <v>2100210.675574839</v>
+        <v>64031121.84594536</v>
       </c>
       <c r="J13" t="n">
-        <v>2146935.163122833</v>
+        <v>65195324.06132698</v>
       </c>
       <c r="K13" t="n">
-        <v>2193663.20916146</v>
+        <v>66359526.2767067</v>
       </c>
       <c r="L13" t="n">
-        <v>2240394.669715703</v>
+        <v>67523728.49209023</v>
       </c>
       <c r="M13" t="n">
-        <v>2287121.60362637</v>
+        <v>68687930.70746613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>748383.0193667141</v>
+        <v>577540.6517904848</v>
       </c>
       <c r="C14" t="n">
-        <v>748383.0193667141</v>
+        <v>589572.7487027496</v>
       </c>
       <c r="D14" t="n">
-        <v>748383.0193667141</v>
+        <v>601604.8456151038</v>
       </c>
       <c r="E14" t="n">
-        <v>748383.0193667141</v>
+        <v>613636.9425273687</v>
       </c>
       <c r="F14" t="n">
-        <v>748383.0193667141</v>
+        <v>625669.0394397378</v>
       </c>
       <c r="G14" t="n">
-        <v>748383.0193667141</v>
+        <v>637701.1363520324</v>
       </c>
       <c r="H14" t="n">
-        <v>748383.0193667141</v>
+        <v>649733.2332642972</v>
       </c>
       <c r="I14" t="n">
-        <v>748383.0193667141</v>
+        <v>661765.3301766366</v>
       </c>
       <c r="J14" t="n">
-        <v>748383.0193667145</v>
+        <v>673797.4270888865</v>
       </c>
       <c r="K14" t="n">
-        <v>748383.0193667145</v>
+        <v>685829.524001196</v>
       </c>
       <c r="L14" t="n">
-        <v>748383.0193667145</v>
+        <v>697861.6209134758</v>
       </c>
       <c r="M14" t="n">
-        <v>748383.0193667145</v>
+        <v>709893.7178258598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>692251.3551554084</v>
+        <v>4539292.178610206</v>
       </c>
       <c r="C15" t="n">
-        <v>709959.8185738921</v>
+        <v>4633860.765664637</v>
       </c>
       <c r="D15" t="n">
-        <v>727668.2819923759</v>
+        <v>4728429.352718949</v>
       </c>
       <c r="E15" t="n">
-        <v>745376.7454107404</v>
+        <v>4822997.939773262</v>
       </c>
       <c r="F15" t="n">
-        <v>763085.2088292837</v>
+        <v>4917566.526827753</v>
       </c>
       <c r="G15" t="n">
-        <v>780793.6722477674</v>
+        <v>5012135.113882184</v>
       </c>
       <c r="H15" t="n">
-        <v>798502.1356663704</v>
+        <v>5106703.700936437</v>
       </c>
       <c r="I15" t="n">
-        <v>816210.5990847945</v>
+        <v>5201272.287990928</v>
       </c>
       <c r="J15" t="n">
-        <v>833919.0625032187</v>
+        <v>5295840.875045359</v>
       </c>
       <c r="K15" t="n">
-        <v>851627.5259215236</v>
+        <v>5390409.462099731</v>
       </c>
       <c r="L15" t="n">
-        <v>869335.9893402457</v>
+        <v>5484978.049154043</v>
       </c>
       <c r="M15" t="n">
-        <v>887044.4527588487</v>
+        <v>5579546.636208415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1032306.731695652</v>
+        <v>11696098.93150139</v>
       </c>
       <c r="C16" t="n">
-        <v>1060476.475044012</v>
+        <v>11939767.65924054</v>
       </c>
       <c r="D16" t="n">
-        <v>1088646.133221269</v>
+        <v>12183436.38698012</v>
       </c>
       <c r="E16" t="n">
-        <v>1116815.706271529</v>
+        <v>12427105.11471987</v>
       </c>
       <c r="F16" t="n">
-        <v>1144985.194239855</v>
+        <v>12670773.84245932</v>
       </c>
       <c r="G16" t="n">
-        <v>1173154.597169757</v>
+        <v>12914442.57019913</v>
       </c>
       <c r="H16" t="n">
-        <v>1201323.915106535</v>
+        <v>13158111.29793888</v>
       </c>
       <c r="I16" t="n">
-        <v>1229493.148094416</v>
+        <v>13401780.02567869</v>
       </c>
       <c r="J16" t="n">
-        <v>1257662.296177626</v>
+        <v>13645448.75341809</v>
       </c>
       <c r="K16" t="n">
-        <v>1285831.359400749</v>
+        <v>13889117.4811576</v>
       </c>
       <c r="L16" t="n">
-        <v>1314000.337807894</v>
+        <v>14132786.20889741</v>
       </c>
       <c r="M16" t="n">
-        <v>1342169.231443286</v>
+        <v>14376454.93663663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3717067.748208195</v>
+        <v>5814953.071436107</v>
       </c>
       <c r="C17" t="n">
-        <v>3811606.462522775</v>
+        <v>5944597.02160944</v>
       </c>
       <c r="D17" t="n">
-        <v>3906145.176910162</v>
+        <v>6074240.971782699</v>
       </c>
       <c r="E17" t="n">
-        <v>4000683.891369313</v>
+        <v>6203884.921956047</v>
       </c>
       <c r="F17" t="n">
-        <v>4095222.60589835</v>
+        <v>6333528.872129247</v>
       </c>
       <c r="G17" t="n">
-        <v>4189761.320495933</v>
+        <v>6463172.822302654</v>
       </c>
       <c r="H17" t="n">
-        <v>4284300.035160393</v>
+        <v>6592816.772475943</v>
       </c>
       <c r="I17" t="n">
-        <v>4378838.749890774</v>
+        <v>6722460.722649202</v>
       </c>
       <c r="J17" t="n">
-        <v>4473377.464684516</v>
+        <v>6852104.672822416</v>
       </c>
       <c r="K17" t="n">
-        <v>4567916.179540873</v>
+        <v>6981748.622995794</v>
       </c>
       <c r="L17" t="n">
-        <v>4662454.894457757</v>
+        <v>7111392.573169053</v>
       </c>
       <c r="M17" t="n">
-        <v>4756993.609433681</v>
+        <v>7241036.523342341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1167648.347573772</v>
+        <v>3889967.551676102</v>
       </c>
       <c r="C18" t="n">
-        <v>1192803.027727634</v>
+        <v>3936176.153553791</v>
       </c>
       <c r="D18" t="n">
-        <v>1276218.510101467</v>
+        <v>3982403.668026216</v>
       </c>
       <c r="E18" t="n">
-        <v>1270018.776469074</v>
+        <v>4028665.085967049</v>
       </c>
       <c r="F18" t="n">
-        <v>1306704.135303281</v>
+        <v>4074908.10179881</v>
       </c>
       <c r="G18" t="n">
-        <v>1423441.377390333</v>
+        <v>4121116.937185422</v>
       </c>
       <c r="H18" t="n">
-        <v>1346596.701789446</v>
+        <v>4167343.659569047</v>
       </c>
       <c r="I18" t="n">
-        <v>1305333.716286145</v>
+        <v>4213604.832071349</v>
       </c>
       <c r="J18" t="n">
-        <v>1348861.337290086</v>
+        <v>4259848.636292629</v>
       </c>
       <c r="K18" t="n">
-        <v>1054862.641688444</v>
+        <v>4306057.728995934</v>
       </c>
       <c r="L18" t="n">
-        <v>1395169.794664815</v>
+        <v>4352283.666864023</v>
       </c>
       <c r="M18" t="n">
-        <v>1379623.672062725</v>
+        <v>4398544.570233867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150221.5878396546</v>
+        <v>5988526.916467369</v>
       </c>
       <c r="C19" t="n">
-        <v>150221.5878396519</v>
+        <v>6030727.19887954</v>
       </c>
       <c r="D19" t="n">
-        <v>150221.5878396495</v>
+        <v>6072927.481291711</v>
       </c>
       <c r="E19" t="n">
-        <v>150221.5878396471</v>
+        <v>6115127.763704002</v>
       </c>
       <c r="F19" t="n">
-        <v>150221.5878396443</v>
+        <v>6157328.046116114</v>
       </c>
       <c r="G19" t="n">
-        <v>150221.5878396416</v>
+        <v>6199528.328528404</v>
       </c>
       <c r="H19" t="n">
-        <v>150221.5878396388</v>
+        <v>6241728.610940456</v>
       </c>
       <c r="I19" t="n">
-        <v>150221.5878396366</v>
+        <v>6283928.893352628</v>
       </c>
       <c r="J19" t="n">
-        <v>150221.5878396337</v>
+        <v>6326129.175764918</v>
       </c>
       <c r="K19" t="n">
-        <v>150221.5878396309</v>
+        <v>6368329.458177209</v>
       </c>
       <c r="L19" t="n">
-        <v>150221.5878396282</v>
+        <v>6410529.740589142</v>
       </c>
       <c r="M19" t="n">
-        <v>150221.5878396256</v>
+        <v>6452730.023001254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2141850.834366888</v>
+        <v>3164720.772617161</v>
       </c>
       <c r="C20" t="n">
-        <v>2141850.834366888</v>
+        <v>3185947.542831361</v>
       </c>
       <c r="D20" t="n">
-        <v>2141850.834366888</v>
+        <v>3207174.313045561</v>
       </c>
       <c r="E20" t="n">
-        <v>2141850.834366888</v>
+        <v>3228401.083259881</v>
       </c>
       <c r="F20" t="n">
-        <v>2141850.834366888</v>
+        <v>3249627.853474021</v>
       </c>
       <c r="G20" t="n">
-        <v>2141850.834366888</v>
+        <v>3270854.623688161</v>
       </c>
       <c r="H20" t="n">
-        <v>2141850.834366888</v>
+        <v>3292081.393902302</v>
       </c>
       <c r="I20" t="n">
-        <v>2141850.834366888</v>
+        <v>3313308.164116502</v>
       </c>
       <c r="J20" t="n">
-        <v>2141850.834366888</v>
+        <v>3334534.934330821</v>
       </c>
       <c r="K20" t="n">
-        <v>2141850.834366888</v>
+        <v>3355761.704544961</v>
       </c>
       <c r="L20" t="n">
-        <v>2141850.834366888</v>
+        <v>3376988.474759161</v>
       </c>
       <c r="M20" t="n">
-        <v>2141850.834366888</v>
+        <v>3398215.244973302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.205752808694679e-305</v>
+        <v>3504290.785848558</v>
       </c>
       <c r="C21" t="n">
-        <v>7.355872658875819e-305</v>
+        <v>3531901.680681616</v>
       </c>
       <c r="D21" t="n">
-        <v>7.505992509056957e-305</v>
+        <v>3556610.724265244</v>
       </c>
       <c r="E21" t="n">
-        <v>7.656112359238098e-305</v>
+        <v>3588860.595785677</v>
       </c>
       <c r="F21" t="n">
-        <v>7.806232209419237e-305</v>
+        <v>3614906.132504128</v>
       </c>
       <c r="G21" t="n">
-        <v>7.956352059600376e-305</v>
+        <v>3640903.751461893</v>
       </c>
       <c r="H21" t="n">
-        <v>8.106471909781516e-305</v>
+        <v>3673162.837562431</v>
       </c>
       <c r="I21" t="n">
-        <v>8.256591759962654e-305</v>
+        <v>3697908.476508532</v>
       </c>
       <c r="J21" t="n">
-        <v>8.406711610143794e-305</v>
+        <v>3725467.177680843</v>
       </c>
       <c r="K21" t="n">
-        <v>8.556831460324933e-305</v>
+        <v>3757141.187531352</v>
       </c>
       <c r="L21" t="n">
-        <v>8.706951310506072e-305</v>
+        <v>3781031.742662515</v>
       </c>
       <c r="M21" t="n">
-        <v>8.85707116068721e-305</v>
+        <v>3810208.364374653</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1040607.160868347</v>
+        <v>12845333.30841482</v>
       </c>
       <c r="C22" t="n">
-        <v>1062286.476719752</v>
+        <v>13030632.91769856</v>
       </c>
       <c r="D22" t="n">
-        <v>1083965.792571187</v>
+        <v>13215932.52698237</v>
       </c>
       <c r="E22" t="n">
-        <v>1105645.108422607</v>
+        <v>13401232.13626626</v>
       </c>
       <c r="F22" t="n">
-        <v>1127324.424274027</v>
+        <v>13586531.74555004</v>
       </c>
       <c r="G22" t="n">
-        <v>1149003.740125403</v>
+        <v>13771831.35483384</v>
       </c>
       <c r="H22" t="n">
-        <v>1170683.055976883</v>
+        <v>13957130.96411783</v>
       </c>
       <c r="I22" t="n">
-        <v>1192362.371828318</v>
+        <v>14142430.57340157</v>
       </c>
       <c r="J22" t="n">
-        <v>1214041.687679738</v>
+        <v>14327730.18268543</v>
       </c>
       <c r="K22" t="n">
-        <v>1235721.003531113</v>
+        <v>14513029.7919693</v>
       </c>
       <c r="L22" t="n">
-        <v>1257400.319382489</v>
+        <v>14698329.40125328</v>
       </c>
       <c r="M22" t="n">
-        <v>1279079.635233998</v>
+        <v>14883629.01053715</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65853.45420379518</v>
+        <v>6290206.480613654</v>
       </c>
       <c r="C23" t="n">
-        <v>67225.40116637293</v>
+        <v>6567239.736748401</v>
       </c>
       <c r="D23" t="n">
-        <v>68597.34812895302</v>
+        <v>6630914.147361149</v>
       </c>
       <c r="E23" t="n">
-        <v>69969.29509153124</v>
+        <v>6645549.323716566</v>
       </c>
       <c r="F23" t="n">
-        <v>71341.24205410946</v>
+        <v>6648913.130043548</v>
       </c>
       <c r="G23" t="n">
-        <v>72713.18901669094</v>
+        <v>6649686.280454283</v>
       </c>
       <c r="H23" t="n">
-        <v>74085.13597926637</v>
+        <v>6649863.984342682</v>
       </c>
       <c r="I23" t="n">
-        <v>75457.08294184972</v>
+        <v>6649904.828464879</v>
       </c>
       <c r="J23" t="n">
-        <v>76829.02990442701</v>
+        <v>6649914.216200353</v>
       </c>
       <c r="K23" t="n">
-        <v>78200.97686700756</v>
+        <v>6649916.373875452</v>
       </c>
       <c r="L23" t="n">
-        <v>79572.92382958485</v>
+        <v>6649916.86976409</v>
       </c>
       <c r="M23" t="n">
-        <v>80944.87079216493</v>
+        <v>6649916.983700197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11803917.94449997</v>
+        <v>11960788.08698534</v>
       </c>
       <c r="C24" t="n">
-        <v>11726416.28973019</v>
+        <v>12209971.1721309</v>
       </c>
       <c r="D24" t="n">
-        <v>11806758.85805643</v>
+        <v>12459154.25727642</v>
       </c>
       <c r="E24" t="n">
-        <v>11611101.84319115</v>
+        <v>12708337.34242193</v>
       </c>
       <c r="F24" t="n">
-        <v>12167730.37683702</v>
+        <v>12957520.42756743</v>
       </c>
       <c r="G24" t="n">
-        <v>12216980.67181635</v>
+        <v>13206703.51271299</v>
       </c>
       <c r="H24" t="n">
-        <v>11973590.21238708</v>
+        <v>13455886.59785848</v>
       </c>
       <c r="I24" t="n">
-        <v>12560028.87822998</v>
+        <v>13705069.68300401</v>
       </c>
       <c r="J24" t="n">
-        <v>12554012.81386292</v>
+        <v>13954252.76814956</v>
       </c>
       <c r="K24" t="n">
-        <v>12575267.86960149</v>
+        <v>14203435.8532951</v>
       </c>
       <c r="L24" t="n">
-        <v>12717168.76580882</v>
+        <v>14452618.93844061</v>
       </c>
       <c r="M24" t="n">
-        <v>13000638.36279154</v>
+        <v>14701802.02358614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3106893.477179954</v>
+        <v>5526431.735173196</v>
       </c>
       <c r="C25" t="n">
-        <v>3442867.251350673</v>
+        <v>5558783.128868759</v>
       </c>
       <c r="D25" t="n">
-        <v>3415832.173669023</v>
+        <v>5591134.522564307</v>
       </c>
       <c r="E25" t="n">
-        <v>3378415.986738695</v>
+        <v>5623485.916259855</v>
       </c>
       <c r="F25" t="n">
-        <v>3477837.505605761</v>
+        <v>5655837.309955344</v>
       </c>
       <c r="G25" t="n">
-        <v>3563470.967399267</v>
+        <v>5688188.703650907</v>
       </c>
       <c r="H25" t="n">
-        <v>3224162.906497618</v>
+        <v>5720540.097346425</v>
       </c>
       <c r="I25" t="n">
-        <v>3526319.398593416</v>
+        <v>5752891.491041988</v>
       </c>
       <c r="J25" t="n">
-        <v>3538644.988066679</v>
+        <v>5785242.884737536</v>
       </c>
       <c r="K25" t="n">
-        <v>3436458.57017041</v>
+        <v>5817594.278433084</v>
       </c>
       <c r="L25" t="n">
-        <v>3690676.69988838</v>
+        <v>5849945.672128618</v>
       </c>
       <c r="M25" t="n">
-        <v>3341235.877736267</v>
+        <v>5882297.065824151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12988043.45949061</v>
+        <v>11111705.10709101</v>
       </c>
       <c r="C26" t="n">
-        <v>13258627.69822986</v>
+        <v>11259235.24738811</v>
       </c>
       <c r="D26" t="n">
-        <v>13529211.93696921</v>
+        <v>11406177.94491433</v>
       </c>
       <c r="E26" t="n">
-        <v>13799796.17570858</v>
+        <v>11552902.05892445</v>
       </c>
       <c r="F26" t="n">
-        <v>14070380.41444799</v>
+        <v>11700850.6227172</v>
       </c>
       <c r="G26" t="n">
-        <v>14340964.65318744</v>
+        <v>11848520.8090162</v>
       </c>
       <c r="H26" t="n">
-        <v>14611548.89192671</v>
+        <v>11998103.16488153</v>
       </c>
       <c r="I26" t="n">
-        <v>14882133.13066629</v>
+        <v>12148346.4446587</v>
       </c>
       <c r="J26" t="n">
-        <v>15152717.3694056</v>
+        <v>12298529.7454825</v>
       </c>
       <c r="K26" t="n">
-        <v>15423301.608145</v>
+        <v>12449067.8505868</v>
       </c>
       <c r="L26" t="n">
-        <v>15693885.84688425</v>
+        <v>12600932.84646463</v>
       </c>
       <c r="M26" t="n">
-        <v>15964470.08562395</v>
+        <v>12753458.84529704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18563116.34923315</v>
+        <v>5733307.253039308</v>
       </c>
       <c r="C27" t="n">
-        <v>18930520.24225509</v>
+        <v>5852751.154144291</v>
       </c>
       <c r="D27" t="n">
-        <v>19297924.14304292</v>
+        <v>5972195.055249274</v>
       </c>
       <c r="E27" t="n">
-        <v>19665328.05218577</v>
+        <v>6091638.95635426</v>
       </c>
       <c r="F27" t="n">
-        <v>20032731.97025895</v>
+        <v>6211082.857459251</v>
       </c>
       <c r="G27" t="n">
-        <v>20400135.8978194</v>
+        <v>6330526.758564234</v>
       </c>
       <c r="H27" t="n">
-        <v>20767539.83540499</v>
+        <v>6449970.65966922</v>
       </c>
       <c r="I27" t="n">
-        <v>21134943.78353536</v>
+        <v>6569414.560774203</v>
       </c>
       <c r="J27" t="n">
-        <v>21502347.74270928</v>
+        <v>6688858.461879183</v>
       </c>
       <c r="K27" t="n">
-        <v>21869751.7134037</v>
+        <v>6808302.362984177</v>
       </c>
       <c r="L27" t="n">
-        <v>22237155.69607437</v>
+        <v>6927746.264089167</v>
       </c>
       <c r="M27" t="n">
-        <v>22604559.69115412</v>
+        <v>7047190.16519415</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19267519.30801129</v>
+        <v>15131961.26185489</v>
       </c>
       <c r="C28" t="n">
-        <v>19529480.51179279</v>
+        <v>15447210.4548099</v>
       </c>
       <c r="D28" t="n">
-        <v>19819943.66344302</v>
+        <v>15762459.64776492</v>
       </c>
       <c r="E28" t="n">
-        <v>20090166.44770665</v>
+        <v>16077708.84072065</v>
       </c>
       <c r="F28" t="n">
-        <v>20343152.81048404</v>
+        <v>16392958.03367662</v>
       </c>
       <c r="G28" t="n">
-        <v>20612908.67983512</v>
+        <v>16708207.22663116</v>
       </c>
       <c r="H28" t="n">
-        <v>20883707.47490917</v>
+        <v>17023456.41958666</v>
       </c>
       <c r="I28" t="n">
-        <v>21157841.2228299</v>
+        <v>17338705.61254263</v>
       </c>
       <c r="J28" t="n">
-        <v>21433366.50568551</v>
+        <v>17653954.80549788</v>
       </c>
       <c r="K28" t="n">
-        <v>21710067.88195061</v>
+        <v>17969203.99845362</v>
       </c>
       <c r="L28" t="n">
-        <v>21988903.95118267</v>
+        <v>18284453.1914072</v>
       </c>
       <c r="M28" t="n">
-        <v>22269627.11379169</v>
+        <v>18599702.38436317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14201549.56785023</v>
+        <v>2244101.786226071</v>
       </c>
       <c r="C29" t="n">
-        <v>14590945.13352513</v>
+        <v>2301502.647806279</v>
       </c>
       <c r="D29" t="n">
-        <v>14980324.30764627</v>
+        <v>2358903.50938643</v>
       </c>
       <c r="E29" t="n">
-        <v>15369639.07975042</v>
+        <v>2416304.370966615</v>
       </c>
       <c r="F29" t="n">
-        <v>15759192.75795865</v>
+        <v>2473705.232546853</v>
       </c>
       <c r="G29" t="n">
-        <v>16148713.7511574</v>
+        <v>2531106.094127053</v>
       </c>
       <c r="H29" t="n">
-        <v>16538182.54363751</v>
+        <v>2588506.955707157</v>
       </c>
       <c r="I29" t="n">
-        <v>16927580.29554415</v>
+        <v>2645907.8172874</v>
       </c>
       <c r="J29" t="n">
-        <v>17316899.00006938</v>
+        <v>2703308.678867545</v>
       </c>
       <c r="K29" t="n">
-        <v>17706263.72240698</v>
+        <v>2760709.540447759</v>
       </c>
       <c r="L29" t="n">
-        <v>18095699.89051175</v>
+        <v>2818110.402027903</v>
       </c>
       <c r="M29" t="n">
-        <v>18485229.83250022</v>
+        <v>2875511.263608109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>53790092.43340383</v>
+        <v>692262.8211818337</v>
       </c>
       <c r="C30" t="n">
-        <v>54910719.35909973</v>
+        <v>741932.9459373951</v>
       </c>
       <c r="D30" t="n">
-        <v>56031346.28479563</v>
+        <v>765398.0114594102</v>
       </c>
       <c r="E30" t="n">
-        <v>57151973.21049158</v>
+        <v>783345.8294256926</v>
       </c>
       <c r="F30" t="n">
-        <v>58272600.13618755</v>
+        <v>800132.1779072881</v>
       </c>
       <c r="G30" t="n">
-        <v>59393227.0618834</v>
+        <v>816674.157196641</v>
       </c>
       <c r="H30" t="n">
-        <v>60513853.98757932</v>
+        <v>833164.8606919646</v>
       </c>
       <c r="I30" t="n">
-        <v>61634480.91327527</v>
+        <v>849644.9435493946</v>
       </c>
       <c r="J30" t="n">
-        <v>62755107.83897111</v>
+        <v>866122.9653461576</v>
       </c>
       <c r="K30" t="n">
-        <v>63875734.7646671</v>
+        <v>882600.7279927731</v>
       </c>
       <c r="L30" t="n">
-        <v>64996361.690363</v>
+        <v>899078.6105818152</v>
       </c>
       <c r="M30" t="n">
-        <v>66116988.61605889</v>
+        <v>915556.6926295757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42117648.1953105</v>
+        <v>1784244.386051312</v>
       </c>
       <c r="C31" t="n">
-        <v>42417513.22792253</v>
+        <v>1369077.959951013</v>
       </c>
       <c r="D31" t="n">
-        <v>42717378.26053378</v>
+        <v>1233975.913367599</v>
       </c>
       <c r="E31" t="n">
-        <v>43017243.2931456</v>
+        <v>1252723.635008633</v>
       </c>
       <c r="F31" t="n">
-        <v>43317108.32575646</v>
+        <v>1305892.337112263</v>
       </c>
       <c r="G31" t="n">
-        <v>43616973.35836896</v>
+        <v>1291061.370934896</v>
       </c>
       <c r="H31" t="n">
-        <v>43916838.39098099</v>
+        <v>1239014.573518291</v>
       </c>
       <c r="I31" t="n">
-        <v>44216703.4235926</v>
+        <v>1234891.125089429</v>
       </c>
       <c r="J31" t="n">
-        <v>44516568.45620346</v>
+        <v>1301349.746897109</v>
       </c>
       <c r="K31" t="n">
-        <v>44816433.48881596</v>
+        <v>1387992.327091277</v>
       </c>
       <c r="L31" t="n">
-        <v>45116298.52142763</v>
+        <v>1404244.496079572</v>
       </c>
       <c r="M31" t="n">
-        <v>45416163.55403858</v>
+        <v>1357063.956856966</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>690145.0609249771</v>
+        <v>2168511.34782204</v>
       </c>
       <c r="C32" t="n">
-        <v>709301.4777221084</v>
+        <v>2213688.667568296</v>
       </c>
       <c r="D32" t="n">
-        <v>728457.8945192695</v>
+        <v>2258865.987314582</v>
       </c>
       <c r="E32" t="n">
-        <v>747614.3113163114</v>
+        <v>2304043.307060897</v>
       </c>
       <c r="F32" t="n">
-        <v>766770.7281134129</v>
+        <v>2349220.626807183</v>
       </c>
       <c r="G32" t="n">
-        <v>785927.144910574</v>
+        <v>2394397.946553469</v>
       </c>
       <c r="H32" t="n">
-        <v>805083.5617077649</v>
+        <v>2439575.266299784</v>
       </c>
       <c r="I32" t="n">
-        <v>824239.9785048366</v>
+        <v>2484752.58604604</v>
       </c>
       <c r="J32" t="n">
-        <v>843396.3953018785</v>
+        <v>2529929.905792356</v>
       </c>
       <c r="K32" t="n">
-        <v>862552.8120990396</v>
+        <v>2575107.225538671</v>
       </c>
       <c r="L32" t="n">
-        <v>881709.2288961411</v>
+        <v>2620284.545284957</v>
       </c>
       <c r="M32" t="n">
-        <v>900865.6456932425</v>
+        <v>2665461.865031242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4577213.77072823</v>
+        <v>2898997.049896866</v>
       </c>
       <c r="C33" t="n">
-        <v>4679761.31298542</v>
+        <v>3016959.563598484</v>
       </c>
       <c r="D33" t="n">
-        <v>4782308.855242848</v>
+        <v>3098405.250655532</v>
       </c>
       <c r="E33" t="n">
-        <v>4884856.397500038</v>
+        <v>3168035.268959284</v>
       </c>
       <c r="F33" t="n">
-        <v>4987403.939756989</v>
+        <v>3233842.355981886</v>
       </c>
       <c r="G33" t="n">
-        <v>5089951.482014298</v>
+        <v>3298412.780704379</v>
       </c>
       <c r="H33" t="n">
-        <v>5192499.024271488</v>
+        <v>3362583.400675893</v>
       </c>
       <c r="I33" t="n">
-        <v>5295046.566528559</v>
+        <v>3426625.003298342</v>
       </c>
       <c r="J33" t="n">
-        <v>5397594.108785748</v>
+        <v>3490625.208412528</v>
       </c>
       <c r="K33" t="n">
-        <v>5500141.651042938</v>
+        <v>3554612.366947412</v>
       </c>
       <c r="L33" t="n">
-        <v>5602689.193300247</v>
+        <v>3618595.651733577</v>
       </c>
       <c r="M33" t="n">
-        <v>5705236.735557437</v>
+        <v>3682578.029987514</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11712332.95934558</v>
+        <v>3057552.197596654</v>
       </c>
       <c r="C34" t="n">
-        <v>11958926.47752386</v>
+        <v>3090348.018087424</v>
       </c>
       <c r="D34" t="n">
-        <v>12205519.99624848</v>
+        <v>3123143.838578388</v>
       </c>
       <c r="E34" t="n">
-        <v>12452113.51482141</v>
+        <v>3155939.659069225</v>
       </c>
       <c r="F34" t="n">
-        <v>12698707.03319985</v>
+        <v>3188735.479560137</v>
       </c>
       <c r="G34" t="n">
-        <v>12945300.55159438</v>
+        <v>3221531.300051033</v>
       </c>
       <c r="H34" t="n">
-        <v>13191894.07003838</v>
+        <v>3254327.120541885</v>
       </c>
       <c r="I34" t="n">
-        <v>13438487.58843899</v>
+        <v>3287122.94103279</v>
       </c>
       <c r="J34" t="n">
-        <v>13685081.10707575</v>
+        <v>3319918.761523634</v>
       </c>
       <c r="K34" t="n">
-        <v>13931674.62555832</v>
+        <v>3352714.582014531</v>
       </c>
       <c r="L34" t="n">
-        <v>14178268.14359248</v>
+        <v>3385510.402505353</v>
       </c>
       <c r="M34" t="n">
-        <v>14424861.66174686</v>
+        <v>3418306.222996287</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5888755.405396022</v>
+        <v>1401359.44051946</v>
       </c>
       <c r="C35" t="n">
-        <v>6025596.927489154</v>
+        <v>1601827.542244628</v>
       </c>
       <c r="D35" t="n">
-        <v>6162438.449582383</v>
+        <v>1709832.559101187</v>
       </c>
       <c r="E35" t="n">
-        <v>6299279.971675515</v>
+        <v>1802618.545548066</v>
       </c>
       <c r="F35" t="n">
-        <v>6436121.493768565</v>
+        <v>1892302.863250881</v>
       </c>
       <c r="G35" t="n">
-        <v>6572963.015861638</v>
+        <v>1957934.744733118</v>
       </c>
       <c r="H35" t="n">
-        <v>6709804.537954971</v>
+        <v>2032604.625003301</v>
       </c>
       <c r="I35" t="n">
-        <v>6846646.060047939</v>
+        <v>2042023.076623641</v>
       </c>
       <c r="J35" t="n">
-        <v>6983487.582141116</v>
+        <v>2150851.461357906</v>
       </c>
       <c r="K35" t="n">
-        <v>7120329.104234263</v>
+        <v>2194034.714169465</v>
       </c>
       <c r="L35" t="n">
-        <v>7257170.626327485</v>
+        <v>2221246.813007377</v>
       </c>
       <c r="M35" t="n">
-        <v>7394012.148420617</v>
+        <v>2257130.779704757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3899662.474536002</v>
+        <v>1355449.505337764</v>
       </c>
       <c r="C36" t="n">
-        <v>3947618.315708369</v>
+        <v>1397358.643519297</v>
       </c>
       <c r="D36" t="n">
-        <v>3995574.156880617</v>
+        <v>1412115.614066582</v>
       </c>
       <c r="E36" t="n">
-        <v>4043529.998053193</v>
+        <v>1428795.872514591</v>
       </c>
       <c r="F36" t="n">
-        <v>4091485.839225322</v>
+        <v>1444618.732365273</v>
       </c>
       <c r="G36" t="n">
-        <v>4139441.680397928</v>
+        <v>1456180.839070078</v>
       </c>
       <c r="H36" t="n">
-        <v>4187397.521570176</v>
+        <v>1468551.984274853</v>
       </c>
       <c r="I36" t="n">
-        <v>4235353.362742841</v>
+        <v>1485136.251131345</v>
       </c>
       <c r="J36" t="n">
-        <v>4283309.203915179</v>
+        <v>1500764.545220915</v>
       </c>
       <c r="K36" t="n">
-        <v>4331265.045087397</v>
+        <v>1512210.951462545</v>
       </c>
       <c r="L36" t="n">
-        <v>4379220.886259824</v>
+        <v>1524762.060614958</v>
       </c>
       <c r="M36" t="n">
-        <v>4427176.727432579</v>
+        <v>1541454.30888056</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7826184.901470676</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="C37" t="n">
-        <v>7989230.420251302</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="D37" t="n">
-        <v>8152275.939031933</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="E37" t="n">
-        <v>8315321.457812589</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="F37" t="n">
-        <v>8478366.976593237</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="G37" t="n">
-        <v>8641412.495373875</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="H37" t="n">
-        <v>8804458.014154498</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="I37" t="n">
-        <v>8967503.532935146</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="J37" t="n">
-        <v>9130549.051715761</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="K37" t="n">
-        <v>9293594.570496418</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="L37" t="n">
-        <v>9456640.089277074</v>
+        <v>3391313.615498161</v>
       </c>
       <c r="M37" t="n">
-        <v>9619685.608057696</v>
+        <v>3391313.615498161</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3371130.552549005</v>
+        <v>5154284.986367431</v>
       </c>
       <c r="C38" t="n">
-        <v>3399322.538322389</v>
+        <v>5260980.277805723</v>
       </c>
       <c r="D38" t="n">
-        <v>3427514.524095774</v>
+        <v>5991465.945547784</v>
       </c>
       <c r="E38" t="n">
-        <v>3455706.509869218</v>
+        <v>6059336.41114663</v>
       </c>
       <c r="F38" t="n">
-        <v>3483898.495642662</v>
+        <v>6073290.311076568</v>
       </c>
       <c r="G38" t="n">
-        <v>3512090.481416047</v>
+        <v>6369796.866821505</v>
       </c>
       <c r="H38" t="n">
-        <v>3540282.467189372</v>
+        <v>6469689.378599936</v>
       </c>
       <c r="I38" t="n">
-        <v>3568474.452962875</v>
+        <v>6594215.167027861</v>
       </c>
       <c r="J38" t="n">
-        <v>3596666.438736141</v>
+        <v>6590946.791367671</v>
       </c>
       <c r="K38" t="n">
-        <v>3624858.424509764</v>
+        <v>6697996.705900565</v>
       </c>
       <c r="L38" t="n">
-        <v>3653050.410283148</v>
+        <v>6873392.13473863</v>
       </c>
       <c r="M38" t="n">
-        <v>3681242.396056473</v>
+        <v>6800418.7343191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3487535.690332591</v>
+        <v>5186589.942371637</v>
       </c>
       <c r="C39" t="n">
-        <v>3504432.802430911</v>
+        <v>5536645.498931289</v>
       </c>
       <c r="D39" t="n">
-        <v>3575374.619931739</v>
+        <v>5718235.849193096</v>
       </c>
       <c r="E39" t="n">
-        <v>3598046.446514136</v>
+        <v>5837806.020640552</v>
       </c>
       <c r="F39" t="n">
-        <v>3584591.806043248</v>
+        <v>5934543.584660888</v>
       </c>
       <c r="G39" t="n">
-        <v>3632742.545445376</v>
+        <v>6022875.358817488</v>
       </c>
       <c r="H39" t="n">
-        <v>3694287.584134093</v>
+        <v>6108112.553826541</v>
       </c>
       <c r="I39" t="n">
-        <v>3689082.931885342</v>
+        <v>6192210.494725287</v>
       </c>
       <c r="J39" t="n">
-        <v>3695447.387113568</v>
+        <v>6275889.008924365</v>
       </c>
       <c r="K39" t="n">
-        <v>3764086.452815992</v>
+        <v>6359413.120993525</v>
       </c>
       <c r="L39" t="n">
-        <v>3798191.705915084</v>
+        <v>6442880.388683021</v>
       </c>
       <c r="M39" t="n">
-        <v>3782745.98797839</v>
+        <v>6526326.722450018</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13083342.81414735</v>
+        <v>5355872.609410137</v>
       </c>
       <c r="C40" t="n">
-        <v>13283408.91001987</v>
+        <v>5418965.793376654</v>
       </c>
       <c r="D40" t="n">
-        <v>13483475.00589287</v>
+        <v>5482195.078167081</v>
       </c>
       <c r="E40" t="n">
-        <v>13683541.10176528</v>
+        <v>5545271.067331702</v>
       </c>
       <c r="F40" t="n">
-        <v>13883607.19763744</v>
+        <v>5608347.151217163</v>
       </c>
       <c r="G40" t="n">
-        <v>14083673.29350996</v>
+        <v>5671632.591725767</v>
       </c>
       <c r="H40" t="n">
-        <v>14283739.389382</v>
+        <v>5734774.626780331</v>
       </c>
       <c r="I40" t="n">
-        <v>14483805.48525441</v>
+        <v>5797829.408073187</v>
       </c>
       <c r="J40" t="n">
-        <v>14683871.58112597</v>
+        <v>5860927.003897488</v>
       </c>
       <c r="K40" t="n">
-        <v>14883937.6769979</v>
+        <v>5924139.260132372</v>
       </c>
       <c r="L40" t="n">
-        <v>15084003.77286935</v>
+        <v>5987264.944747329</v>
       </c>
       <c r="M40" t="n">
-        <v>15284069.86874032</v>
+        <v>6050449.661810219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7166328.8360219</v>
+        <v>3251340.247548342</v>
       </c>
       <c r="C41" t="n">
-        <v>8326844.774657518</v>
+        <v>3291609.975112557</v>
       </c>
       <c r="D41" t="n">
-        <v>8650883.436246514</v>
+        <v>3331879.702676699</v>
       </c>
       <c r="E41" t="n">
-        <v>7830077.168098181</v>
+        <v>3372149.430240899</v>
       </c>
       <c r="F41" t="n">
-        <v>8531079.812226415</v>
+        <v>3412419.15780507</v>
       </c>
       <c r="G41" t="n">
-        <v>8855709.622936577</v>
+        <v>3452688.885369271</v>
       </c>
       <c r="H41" t="n">
-        <v>8025368.281515628</v>
+        <v>3492958.612933472</v>
       </c>
       <c r="I41" t="n">
-        <v>8666120.338986546</v>
+        <v>3533228.340497583</v>
       </c>
       <c r="J41" t="n">
-        <v>9049735.803225666</v>
+        <v>3573498.068061784</v>
       </c>
       <c r="K41" t="n">
-        <v>8221092.148090065</v>
+        <v>3613767.795625895</v>
       </c>
       <c r="L41" t="n">
-        <v>8800293.899642766</v>
+        <v>3654037.523190111</v>
       </c>
       <c r="M41" t="n">
-        <v>9242792.627575397</v>
+        <v>3694307.250754297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11853306.48442008</v>
+        <v>4288869.920676351</v>
       </c>
       <c r="C42" t="n">
-        <v>12100250.36951225</v>
+        <v>4338277.792177141</v>
       </c>
       <c r="D42" t="n">
-        <v>12347194.25460432</v>
+        <v>4387685.663677931</v>
       </c>
       <c r="E42" t="n">
-        <v>12594138.13969639</v>
+        <v>4437093.535178751</v>
       </c>
       <c r="F42" t="n">
-        <v>12841082.02478849</v>
+        <v>4486501.406679541</v>
       </c>
       <c r="G42" t="n">
-        <v>13088025.90988054</v>
+        <v>4535909.278180391</v>
       </c>
       <c r="H42" t="n">
-        <v>13334969.79497265</v>
+        <v>4585317.149681181</v>
       </c>
       <c r="I42" t="n">
-        <v>13581913.68006469</v>
+        <v>4634725.021182001</v>
       </c>
       <c r="J42" t="n">
-        <v>13828857.56515673</v>
+        <v>4684132.892682701</v>
       </c>
       <c r="K42" t="n">
-        <v>14075801.45024893</v>
+        <v>4733540.764183581</v>
       </c>
       <c r="L42" t="n">
-        <v>14322745.33534094</v>
+        <v>4782948.635684371</v>
       </c>
       <c r="M42" t="n">
-        <v>14569689.22043303</v>
+        <v>4832356.507185161</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5975985.608408809</v>
+        <v>3175442.675302178</v>
       </c>
       <c r="C43" t="n">
-        <v>6032007.03977406</v>
+        <v>3199420.725976825</v>
       </c>
       <c r="D43" t="n">
-        <v>6088028.471139371</v>
+        <v>3223398.811906219</v>
       </c>
       <c r="E43" t="n">
-        <v>6144049.902504534</v>
+        <v>3247376.923728451</v>
       </c>
       <c r="F43" t="n">
-        <v>6200071.333869755</v>
+        <v>3271354.993834242</v>
       </c>
       <c r="G43" t="n">
-        <v>6256092.765235007</v>
+        <v>3295333.017202511</v>
       </c>
       <c r="H43" t="n">
-        <v>6312114.196600139</v>
+        <v>3319311.072404116</v>
       </c>
       <c r="I43" t="n">
-        <v>6368135.627965212</v>
+        <v>3343289.160739616</v>
       </c>
       <c r="J43" t="n">
-        <v>6424157.059330583</v>
+        <v>3367267.274733558</v>
       </c>
       <c r="K43" t="n">
-        <v>6480178.490695745</v>
+        <v>3391245.306819215</v>
       </c>
       <c r="L43" t="n">
-        <v>6536199.922060966</v>
+        <v>3415223.338160858</v>
       </c>
       <c r="M43" t="n">
-        <v>6592221.353426248</v>
+        <v>3439201.414119482</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13451224.56239682</v>
+        <v>5839190.189098601</v>
       </c>
       <c r="C44" t="n">
-        <v>13441420.89139448</v>
+        <v>5880452.64502621</v>
       </c>
       <c r="D44" t="n">
-        <v>13564845.81591671</v>
+        <v>5921715.101054983</v>
       </c>
       <c r="E44" t="n">
-        <v>13737806.82733964</v>
+        <v>5962977.557034856</v>
       </c>
       <c r="F44" t="n">
-        <v>13929185.98612632</v>
+        <v>6004240.012999106</v>
       </c>
       <c r="G44" t="n">
-        <v>14127413.24643937</v>
+        <v>6045502.469039585</v>
       </c>
       <c r="H44" t="n">
-        <v>14328186.71802921</v>
+        <v>6086764.924962345</v>
       </c>
       <c r="I44" t="n">
-        <v>14529906.90336737</v>
+        <v>6128027.3810148</v>
       </c>
       <c r="J44" t="n">
-        <v>14731979.08892244</v>
+        <v>6169289.836958096</v>
       </c>
       <c r="K44" t="n">
-        <v>14934182.1526368</v>
+        <v>6210552.292962649</v>
       </c>
       <c r="L44" t="n">
-        <v>15136433.87851587</v>
+        <v>6251814.748969208</v>
       </c>
       <c r="M44" t="n">
-        <v>15338703.69760682</v>
+        <v>6293077.204910997</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4941399.49334392</v>
+        <v>3042975.844511844</v>
       </c>
       <c r="C45" t="n">
-        <v>5004194.300059691</v>
+        <v>3055868.291973047</v>
       </c>
       <c r="D45" t="n">
-        <v>5066989.106775314</v>
+        <v>3089398.793681975</v>
       </c>
       <c r="E45" t="n">
-        <v>5129783.91349113</v>
+        <v>3108957.579025224</v>
       </c>
       <c r="F45" t="n">
-        <v>5192578.720206529</v>
+        <v>3139808.632648211</v>
       </c>
       <c r="G45" t="n">
-        <v>5255373.526922405</v>
+        <v>3166812.646111578</v>
       </c>
       <c r="H45" t="n">
-        <v>5318168.333638147</v>
+        <v>3184121.055733532</v>
       </c>
       <c r="I45" t="n">
-        <v>5380963.140353784</v>
+        <v>3189938.521050867</v>
       </c>
       <c r="J45" t="n">
-        <v>5443757.947069556</v>
+        <v>3215768.822204098</v>
       </c>
       <c r="K45" t="n">
-        <v>5506552.753785238</v>
+        <v>3235880.868783206</v>
       </c>
       <c r="L45" t="n">
-        <v>5569347.560500965</v>
+        <v>3230201.887330126</v>
       </c>
       <c r="M45" t="n">
-        <v>5632142.367216498</v>
+        <v>3283996.471255507</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13312875.28426313</v>
+        <v>2300262.284437388</v>
       </c>
       <c r="C46" t="n">
-        <v>13510013.7348786</v>
+        <v>2309296.854099818</v>
       </c>
       <c r="D46" t="n">
-        <v>13707152.18549418</v>
+        <v>2318331.423762217</v>
       </c>
       <c r="E46" t="n">
-        <v>13904290.63610995</v>
+        <v>2327365.993424602</v>
       </c>
       <c r="F46" t="n">
-        <v>14101429.08672583</v>
+        <v>2336400.563087016</v>
       </c>
       <c r="G46" t="n">
-        <v>14298567.53734148</v>
+        <v>2345435.132749416</v>
       </c>
       <c r="H46" t="n">
-        <v>14495705.98795676</v>
+        <v>2354469.702411808</v>
       </c>
       <c r="I46" t="n">
-        <v>14692844.43857265</v>
+        <v>2363504.272074193</v>
       </c>
       <c r="J46" t="n">
-        <v>14889982.88918853</v>
+        <v>2372538.841736607</v>
       </c>
       <c r="K46" t="n">
-        <v>15087121.33980405</v>
+        <v>2381573.411399007</v>
       </c>
       <c r="L46" t="n">
-        <v>15284259.79041958</v>
+        <v>2390607.981061414</v>
       </c>
       <c r="M46" t="n">
-        <v>15481398.24103558</v>
+        <v>2399642.550723799</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2201380.894588627</v>
+        <v>1953680.596467011</v>
       </c>
       <c r="C47" t="n">
-        <v>2258467.826348864</v>
+        <v>2023658.430394493</v>
       </c>
       <c r="D47" t="n">
-        <v>2315554.758109003</v>
+        <v>2070132.481180072</v>
       </c>
       <c r="E47" t="n">
-        <v>2372641.689869136</v>
+        <v>2123495.529973857</v>
       </c>
       <c r="F47" t="n">
-        <v>2429728.621629193</v>
+        <v>2170590.564242378</v>
       </c>
       <c r="G47" t="n">
-        <v>2486815.553389184</v>
+        <v>2218693.392417423</v>
       </c>
       <c r="H47" t="n">
-        <v>2543902.48514916</v>
+        <v>2267722.713224821</v>
       </c>
       <c r="I47" t="n">
-        <v>2600989.416909151</v>
+        <v>2305796.126115412</v>
       </c>
       <c r="J47" t="n">
-        <v>2658076.348668993</v>
+        <v>2362344.595186144</v>
       </c>
       <c r="K47" t="n">
-        <v>2715163.280428804</v>
+        <v>2402672.205973923</v>
       </c>
       <c r="L47" t="n">
-        <v>2772250.212188527</v>
+        <v>2445428.958295852</v>
       </c>
       <c r="M47" t="n">
-        <v>2829337.143948227</v>
+        <v>2498814.035764709</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>724540.5792877302</v>
+        <v>5324397.727824926</v>
       </c>
       <c r="C48" t="n">
-        <v>740820.524972856</v>
+        <v>5412293.815494388</v>
       </c>
       <c r="D48" t="n">
-        <v>757100.4706580117</v>
+        <v>5500189.904444516</v>
       </c>
       <c r="E48" t="n">
-        <v>773380.4163431451</v>
+        <v>5588085.994675457</v>
       </c>
       <c r="F48" t="n">
-        <v>789660.362028271</v>
+        <v>5675982.086186945</v>
       </c>
       <c r="G48" t="n">
-        <v>805940.3077134266</v>
+        <v>5763878.178979158</v>
       </c>
       <c r="H48" t="n">
-        <v>822220.2533985674</v>
+        <v>5851774.273052007</v>
       </c>
       <c r="I48" t="n">
-        <v>838500.1990837157</v>
+        <v>5939670.368405312</v>
       </c>
       <c r="J48" t="n">
-        <v>854780.144768849</v>
+        <v>6027566.465039134</v>
       </c>
       <c r="K48" t="n">
-        <v>871060.0904539675</v>
+        <v>6115462.562953472</v>
       </c>
       <c r="L48" t="n">
-        <v>887340.0361391231</v>
+        <v>6203358.662148118</v>
       </c>
       <c r="M48" t="n">
-        <v>903619.9818242639</v>
+        <v>6291254.762623191</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>835665.277406659</v>
+        <v>387530.602838248</v>
       </c>
       <c r="C49" t="n">
-        <v>846524.3091556579</v>
+        <v>387530.602838248</v>
       </c>
       <c r="D49" t="n">
-        <v>857383.3409046605</v>
+        <v>387530.602838248</v>
       </c>
       <c r="E49" t="n">
-        <v>868242.3726536855</v>
+        <v>387530.602838248</v>
       </c>
       <c r="F49" t="n">
-        <v>879101.4044026919</v>
+        <v>387530.602838248</v>
       </c>
       <c r="G49" t="n">
-        <v>889960.4361517057</v>
+        <v>387530.602838248</v>
       </c>
       <c r="H49" t="n">
-        <v>900819.4679006971</v>
+        <v>387530.602838248</v>
       </c>
       <c r="I49" t="n">
-        <v>911678.499649711</v>
+        <v>387530.602838248</v>
       </c>
       <c r="J49" t="n">
-        <v>922537.5313987173</v>
+        <v>387530.602838248</v>
       </c>
       <c r="K49" t="n">
-        <v>933396.5631477311</v>
+        <v>387530.602838248</v>
       </c>
       <c r="L49" t="n">
-        <v>944255.59489673</v>
+        <v>387530.602838248</v>
       </c>
       <c r="M49" t="n">
-        <v>955114.6266457289</v>
+        <v>387530.602838248</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2139213.384133697</v>
+        <v>2807188.096519133</v>
       </c>
       <c r="C50" t="n">
-        <v>2184171.356730878</v>
+        <v>2865671.181863256</v>
       </c>
       <c r="D50" t="n">
-        <v>2229129.311409235</v>
+        <v>2924154.267207406</v>
       </c>
       <c r="E50" t="n">
-        <v>2274087.248186827</v>
+        <v>2982637.352551583</v>
       </c>
       <c r="F50" t="n">
-        <v>2319045.167081475</v>
+        <v>3041120.437895704</v>
       </c>
       <c r="G50" t="n">
-        <v>2364003.06811136</v>
+        <v>3099603.523239851</v>
       </c>
       <c r="H50" t="n">
-        <v>2408960.951293826</v>
+        <v>3158086.608584002</v>
       </c>
       <c r="I50" t="n">
-        <v>2453918.816647112</v>
+        <v>3216569.693928137</v>
       </c>
       <c r="J50" t="n">
-        <v>2498876.6641891</v>
+        <v>3275052.779272303</v>
       </c>
       <c r="K50" t="n">
-        <v>2543834.493937194</v>
+        <v>3333535.864616454</v>
       </c>
       <c r="L50" t="n">
-        <v>2588792.305909693</v>
+        <v>3392018.949960604</v>
       </c>
       <c r="M50" t="n">
-        <v>2633750.100124002</v>
+        <v>3450502.035304736</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2976660.997928184</v>
+        <v>2891653.468781099</v>
       </c>
       <c r="C51" t="n">
-        <v>3043488.737062048</v>
+        <v>2951896.249380752</v>
       </c>
       <c r="D51" t="n">
-        <v>3110316.476195212</v>
+        <v>3012139.029980332</v>
       </c>
       <c r="E51" t="n">
-        <v>3177144.215327613</v>
+        <v>3072381.810579926</v>
       </c>
       <c r="F51" t="n">
-        <v>3243971.954459123</v>
+        <v>3132624.591179579</v>
       </c>
       <c r="G51" t="n">
-        <v>3310799.693589959</v>
+        <v>3192867.371779114</v>
       </c>
       <c r="H51" t="n">
-        <v>3377627.432719979</v>
+        <v>3253110.152378738</v>
       </c>
       <c r="I51" t="n">
-        <v>3444455.171849351</v>
+        <v>3313352.932978332</v>
       </c>
       <c r="J51" t="n">
-        <v>3511282.910977859</v>
+        <v>3373595.713577956</v>
       </c>
       <c r="K51" t="n">
-        <v>3578110.650105633</v>
+        <v>3433838.494177535</v>
       </c>
       <c r="L51" t="n">
-        <v>3644938.38923274</v>
+        <v>3494081.274777159</v>
       </c>
       <c r="M51" t="n">
-        <v>3711766.128358882</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3097712.929350078</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3133270.839296877</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3168828.749243617</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3204386.659190416</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3239944.569137216</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3275502.479084253</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3311060.389030814</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3346618.298977613</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3382176.208924413</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3417734.118871212</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3453292.028818011</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3488849.93876493</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2090028.735152781</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2138923.867973462</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2187819.000794083</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2236714.133614674</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2285609.266435228</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2334504.399255708</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2383399.532076173</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2432294.66489657</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2481189.797716938</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2530084.930537283</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2578980.063357554</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2627875.196177796</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1754416.797371279</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1790967.147316512</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1827517.497261751</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1864067.84720698</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1900618.19715222</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1937168.547097456</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1973718.897042695</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2010269.246987931</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2046819.59693316</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2083369.946878389</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2119920.296823636</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2156470.646768872</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5736135.025405049</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5855637.838434577</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5975140.651463747</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6094643.464493036</v>
-      </c>
-      <c r="F55" t="n">
-        <v>6214146.277522206</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6333649.090551615</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6453151.903580546</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6572654.716610312</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6692157.529639482</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6811660.342668533</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6931163.155697703</v>
-      </c>
-      <c r="M55" t="n">
-        <v>7050665.968726993</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4447908.654837422</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4510922.160562612</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4573935.666287817</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4636949.172013007</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4699962.677738197</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4762976.183463402</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4825989.689188607</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4889003.194913797</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4952016.700638987</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5015030.2063642</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5078043.712089367</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5141057.21781458</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5698238.570231676</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5785974.564881071</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5873711.173110858</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5961448.399830133</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6049186.244875386</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6136924.703011841</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6224663.76397647</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6312403.412562013</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6400143.628741711</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6487884.387833774</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6575625.660703152</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6663367.414001524</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5435502.912272334</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5503908.986854315</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5572317.241457701</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5640716.452565014</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5709121.788884223</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5777529.311282098</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5845927.549850881</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5914327.845621943</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5982737.406078994</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6051141.270665586</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6119543.439801455</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6187947.439954042</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3327314.293393552</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3371051.380207479</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3414788.467021406</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3458525.553835377</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3502262.640649326</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3545999.727463245</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3589736.814277187</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3633473.901091158</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3677210.987905025</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3720948.074718967</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3764685.161532924</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3808422.248346843</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3894469.278819731</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3891014.368475307</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3887562.556714687</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3884113.929807041</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3880668.581511715</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3877226.612453785</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3873788.12945665</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3870353.244835414</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3866922.075655993</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3863494.742964383</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3860071.370990859</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3856652.086334269</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3195060.904848069</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3219376.766445152</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3243692.628042206</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3268008.489639275</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3292324.351236314</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3316640.212833434</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3340956.074430503</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3365271.936027557</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3389587.797624633</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3413903.659221679</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3438219.52081874</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3462535.382415824</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6080510.307248265</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6133034.856725022</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6185559.406201646</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6238083.955678344</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6290608.505155101</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6343133.05463177</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6395657.604108498</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6448182.153585136</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6500706.703061879</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6553231.252538562</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6605755.80201529</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6658280.351492018</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3125754.543396682</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3154128.348239712</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3182326.789000191</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3210438.738399602</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3238659.997150913</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3267051.229343385</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3295462.974122442</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3323720.42706538</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3351839.506993569</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3380007.191842146</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3408350.387133077</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3436779.014648303</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>3319245.812600613</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3388396.767029405</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3457547.721458375</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3526698.675887942</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3595849.630317211</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3665000.58474648</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3734151.539175391</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3803302.493604779</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3872453.448034167</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3941604.40246284</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4010755.356892288</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4079906.311321378</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1826965.090229988</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1865026.862943411</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1903088.635656118</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1941150.408369303</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1979212.181082249</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2017273.953795671</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2055335.726508856</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2093397.499221802</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2131459.271934271</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2169521.044647455</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2207582.817360163</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2245644.590074301</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5336613.444878735</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5426282.984428689</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5515952.528265364</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5605622.036657918</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5695291.592028577</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5784961.119992711</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5874630.641571522</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5964300.192718748</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6053969.710669398</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6143639.217864681</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6233308.794451177</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6322978.296065226</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>800231.7588283774</v>
-      </c>
-      <c r="C67" t="n">
-        <v>817272.8255178444</v>
-      </c>
-      <c r="D67" t="n">
-        <v>834268.8194667697</v>
-      </c>
-      <c r="E67" t="n">
-        <v>851296.5025841519</v>
-      </c>
-      <c r="F67" t="n">
-        <v>868314.5161117557</v>
-      </c>
-      <c r="G67" t="n">
-        <v>885317.5358547363</v>
-      </c>
-      <c r="H67" t="n">
-        <v>902356.1254970133</v>
-      </c>
-      <c r="I67" t="n">
-        <v>919348.2816400286</v>
-      </c>
-      <c r="J67" t="n">
-        <v>936385.0733862836</v>
-      </c>
-      <c r="K67" t="n">
-        <v>953391.2008151338</v>
-      </c>
-      <c r="L67" t="n">
-        <v>970405.6469786353</v>
-      </c>
-      <c r="M67" t="n">
-        <v>987436.3838722333</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2993908.361440495</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3066954.087341733</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3139999.813242882</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3213045.53914386</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3286091.265044808</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3359136.990945593</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3432182.716846332</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3505228.442746863</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3578274.168647334</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3651319.894547693</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3724365.620447874</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3797411.346348017</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3173342.66530019</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3231387.599039525</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3289715.540737689</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3348316.965803027</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3407181.377267301</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3466293.900903702</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3525643.89975372</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3585217.513718456</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3645012.569750965</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3705012.902762353</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3765212.941342026</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3825599.166117042</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>12030351.66222</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12280983.98851585</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12531616.31481266</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12782248.64110947</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13032880.96740532</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13283513.29370213</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13534145.61999798</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13784777.94629383</v>
-      </c>
-      <c r="J70" t="n">
-        <v>14035410.27259064</v>
-      </c>
-      <c r="K70" t="n">
-        <v>14286042.59888744</v>
-      </c>
-      <c r="L70" t="n">
-        <v>14536674.92518234</v>
-      </c>
-      <c r="M70" t="n">
-        <v>14787307.25147915</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>26409951.55134082</v>
-      </c>
-      <c r="C71" t="n">
-        <v>26960158.87532735</v>
-      </c>
-      <c r="D71" t="n">
-        <v>27510366.1993134</v>
-      </c>
-      <c r="E71" t="n">
-        <v>28060573.52329969</v>
-      </c>
-      <c r="F71" t="n">
-        <v>28610780.84728575</v>
-      </c>
-      <c r="G71" t="n">
-        <v>29160988.17127228</v>
-      </c>
-      <c r="H71" t="n">
-        <v>29711195.49525857</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30261402.81924462</v>
-      </c>
-      <c r="J71" t="n">
-        <v>30811610.14323115</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31361817.46721721</v>
-      </c>
-      <c r="L71" t="n">
-        <v>31912024.79120326</v>
-      </c>
-      <c r="M71" t="n">
-        <v>32462232.11518979</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2476061.28640829</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2506612.284089729</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2513259.525277615</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2530912.597033367</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2560556.896688655</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2601528.554122984</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2653005.15496479</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2714102.073993713</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2783903.825903118</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2861489.874654964</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2945957.098007798</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3036438.644043013</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7124880.034724981</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7273315.035448372</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7421750.036171824</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7570185.036895245</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7718620.037618697</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7867055.038342178</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8015490.03906557</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8163925.039789051</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8312360.040512383</v>
-      </c>
-      <c r="K73" t="n">
-        <v>8460795.041235864</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8609230.041959316</v>
-      </c>
-      <c r="M73" t="n">
-        <v>8757665.042682737</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19853236.26775548</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20014314.87072362</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20127529.32488289</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20253231.52857283</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20430839.85252078</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20609150.22926624</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20736429.81476334</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20848727.21095276</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21008525.0483622</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21195706.17843443</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21342868.2236755</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21451971.70006059</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>32584482.64610362</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32733330.85793591</v>
-      </c>
-      <c r="D75" t="n">
-        <v>35271915.30958569</v>
-      </c>
-      <c r="E75" t="n">
-        <v>37885436.51678753</v>
-      </c>
-      <c r="F75" t="n">
-        <v>39211870.44355738</v>
-      </c>
-      <c r="G75" t="n">
-        <v>39107436.30992997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>35441990.47755599</v>
-      </c>
-      <c r="I75" t="n">
-        <v>41198106.42837715</v>
-      </c>
-      <c r="J75" t="n">
-        <v>38558406.09929049</v>
-      </c>
-      <c r="K75" t="n">
-        <v>37251061.17709494</v>
-      </c>
-      <c r="L75" t="n">
-        <v>39178982.79863703</v>
-      </c>
-      <c r="M75" t="n">
-        <v>39070354.31641865</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19267519.30801129</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19529480.51179279</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19819943.66344302</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20090166.44770665</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20343152.81048404</v>
-      </c>
-      <c r="G76" t="n">
-        <v>20612908.67983512</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20883707.47490917</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21157841.2228299</v>
-      </c>
-      <c r="J76" t="n">
-        <v>21433366.50568551</v>
-      </c>
-      <c r="K76" t="n">
-        <v>21710067.88195061</v>
-      </c>
-      <c r="L76" t="n">
-        <v>21988903.95118267</v>
-      </c>
-      <c r="M76" t="n">
-        <v>22269627.11379169</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17165803.24886763</v>
-      </c>
-      <c r="C77" t="n">
-        <v>17559914.39313853</v>
-      </c>
-      <c r="D77" t="n">
-        <v>17953557.26825106</v>
-      </c>
-      <c r="E77" t="n">
-        <v>18347574.45621145</v>
-      </c>
-      <c r="F77" t="n">
-        <v>18741289.47691786</v>
-      </c>
-      <c r="G77" t="n">
-        <v>19135190.58825767</v>
-      </c>
-      <c r="H77" t="n">
-        <v>19528993.87954378</v>
-      </c>
-      <c r="I77" t="n">
-        <v>19922769.68397963</v>
-      </c>
-      <c r="J77" t="n">
-        <v>20316663.64734435</v>
-      </c>
-      <c r="K77" t="n">
-        <v>20710319.01911974</v>
-      </c>
-      <c r="L77" t="n">
-        <v>21104292.0318017</v>
-      </c>
-      <c r="M77" t="n">
-        <v>21497845.32675505</v>
+        <v>3554324.055376753</v>
       </c>
     </row>
   </sheetData>
